--- a/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
+++ b/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER2\ARTEFACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="6_{C3531600-0594-4BA6-B807-231BA8DD42C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{74A5CDEF-C556-49DF-AAD3-EEE91E845552}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="6_{C3531600-0594-4BA6-B807-231BA8DD42C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{30ECB380-CE47-4C9A-8F67-EAF30529DD92}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
   <sheets>
     <sheet name="ARTEFACTO7.1" sheetId="2" r:id="rId1"/>
     <sheet name="ARTEFACTO7.2" sheetId="1" r:id="rId2"/>
+    <sheet name="ARTEFACTO7-ITER2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="213">
   <si>
     <t>RF1</t>
   </si>
@@ -281,6 +282,390 @@
   </si>
   <si>
     <t>PARRAFO 12</t>
+  </si>
+  <si>
+    <t>Cliente.Cliente()</t>
+  </si>
+  <si>
+    <t>Cliente.editar()</t>
+  </si>
+  <si>
+    <t>Factura.Factura()</t>
+  </si>
+  <si>
+    <t>Factura.editar()</t>
+  </si>
+  <si>
+    <t>Peticion.Peticion()</t>
+  </si>
+  <si>
+    <t>Peticion.editar()</t>
+  </si>
+  <si>
+    <t>Ayudante_Almacen.Ayudante_Almacen()</t>
+  </si>
+  <si>
+    <t>Ayudante_Almacen.editar()</t>
+  </si>
+  <si>
+    <t>Ayudante_Coordinador.Ayudante_Coordinador()</t>
+  </si>
+  <si>
+    <t>Ayudante_Coordinador.editar()</t>
+  </si>
+  <si>
+    <t>Basicas.Basicas()</t>
+  </si>
+  <si>
+    <t>Basicas.editar()</t>
+  </si>
+  <si>
+    <t>Basicas.CantidadPedir()</t>
+  </si>
+  <si>
+    <t>Beneficios.CrearTipoInforme()</t>
+  </si>
+  <si>
+    <t>Coordinador_Tecnico.Coordinador_Tecnico()</t>
+  </si>
+  <si>
+    <t>Especiales.Especiales()</t>
+  </si>
+  <si>
+    <t>Especiales.editar()</t>
+  </si>
+  <si>
+    <t>Fachada.Fachada()</t>
+  </si>
+  <si>
+    <t>Fachada.editarCliente()</t>
+  </si>
+  <si>
+    <t>Fachada.editarFactura()</t>
+  </si>
+  <si>
+    <t>Fachada.editarParte()</t>
+  </si>
+  <si>
+    <t>Fachada.editarPeticion()</t>
+  </si>
+  <si>
+    <t>Fachada.editarPieza()</t>
+  </si>
+  <si>
+    <t>Fachada.editarPresupuesto()</t>
+  </si>
+  <si>
+    <t>Fachada.editarProveedor()</t>
+  </si>
+  <si>
+    <t>Fachada.getNuevosPedidos()</t>
+  </si>
+  <si>
+    <t>Fachada.getPeticiones()</t>
+  </si>
+  <si>
+    <t>Fachada.getPiezas()</t>
+  </si>
+  <si>
+    <t>Fachada.getProveedores()</t>
+  </si>
+  <si>
+    <t>Fachada.guardarParte()</t>
+  </si>
+  <si>
+    <t>Fachada.log()</t>
+  </si>
+  <si>
+    <t>Fachada.pedirPieza()</t>
+  </si>
+  <si>
+    <t>Generador_email.enviarEmail()</t>
+  </si>
+  <si>
+    <t>Gestor_Almacen.Gestor_Almacen()</t>
+  </si>
+  <si>
+    <t>Gestor_Almacen.editar()</t>
+  </si>
+  <si>
+    <t>Gestor_Archivos.getBeneficios()</t>
+  </si>
+  <si>
+    <t>Gestor_Archivos.getResumen()</t>
+  </si>
+  <si>
+    <t>Gestor_Archivos.getTrabajo()</t>
+  </si>
+  <si>
+    <t>Informe.Informe()</t>
+  </si>
+  <si>
+    <t>Informe.crearTipoInforme()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.INTERFAZ_USUARIO()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickAsignarTecnico()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickBorrarCliente()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickBorrarFactura()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickBorrarParte()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickBorrarPeticion()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickBorrarPieza()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickBorrarPresupuesto()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickBorrarProveedor()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickLogger()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickModificarCliente()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickModificarFactura()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickModificarParte()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickModificarPeticion()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickModificarPieza()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickModificarPresupuesto()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickModificarProveedor()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickMostrarCliente()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickMostrarDatosPeticion()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickMostrarFacturas()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickMostrarPartes()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickMostrarPedidos()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickMostrarPeticiones()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickMostrarPiezas()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickMostrarPieza()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickMostrarPresupuestos()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickNuevaFactura()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickNuevaPeticion()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickNuevaPieza()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickNuevoCliente()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickNuevoParte()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickNuevoPedido()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickNuevoPresupuesto()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickNuevoProveedor()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickPedirPieza()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.update()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_CLIENTE.onClickAceptarPresupuesto()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_CLIENTE.onClickCancelarPeticion()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_CLIENTE.onClickDeclinarPresupuesto()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_CLIENTE.onClickMostrarPeticiones()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_CLIENTE.onClickSolicitarPeticion()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_CLIENTE.onClickSolicitarPresupuesto()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_TECNICO.onClickAddPieza()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_TECNICO.onClickCrearParte()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_TECNICO.onClickModificarParte()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_TECNICO.onClickMostrarParte()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_TECNICO.onClickMostrarPeticiones()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_TECNICO.update()</t>
+  </si>
+  <si>
+    <t>Parte_Trabajo.Parte_Trabajo()</t>
+  </si>
+  <si>
+    <t>Parte_Trabajo.editar()</t>
+  </si>
+  <si>
+    <t>Pedidos.Pedidos()</t>
+  </si>
+  <si>
+    <t>Pedidos.editar()</t>
+  </si>
+  <si>
+    <t>Piezas.Piezas()</t>
+  </si>
+  <si>
+    <t>Piezas.editar()</t>
+  </si>
+  <si>
+    <t>Presupuesto.Presupuesto()</t>
+  </si>
+  <si>
+    <t>Presupuesto.editar()</t>
+  </si>
+  <si>
+    <t>Proveedor.Proveedor()</t>
+  </si>
+  <si>
+    <t>Proveedor.editar()</t>
+  </si>
+  <si>
+    <t>Resumen_Trabajo.crearTipoInforme()</t>
+  </si>
+  <si>
+    <t>SISTEMA.SISTEMA()</t>
+  </si>
+  <si>
+    <t>SISTEMA.agruparPedidos()</t>
+  </si>
+  <si>
+    <t>SISTEMA.cargarInterfazTecnico()</t>
+  </si>
+  <si>
+    <t>SISTEMA.crearInformes()</t>
+  </si>
+  <si>
+    <t>SISTEMA.crearParte()</t>
+  </si>
+  <si>
+    <t>SISTEMA.crearPedidos()</t>
+  </si>
+  <si>
+    <t>SISTEMA.editarCliente()</t>
+  </si>
+  <si>
+    <t>SISTEMA.editarFactura()</t>
+  </si>
+  <si>
+    <t>SISTEMA.editarParte()</t>
+  </si>
+  <si>
+    <t>SISTEMA.editarPeticion()</t>
+  </si>
+  <si>
+    <t>SISTEMA.editarPieza()</t>
+  </si>
+  <si>
+    <t>SISTEMA.editarPresupuesto()</t>
+  </si>
+  <si>
+    <t>SISTEMA.editarProveedor()</t>
+  </si>
+  <si>
+    <t>SISTEMA.log()</t>
+  </si>
+  <si>
+    <t>SISTEMA.mostrarClientes()</t>
+  </si>
+  <si>
+    <t>SISTEMA.mostrarFacturas()</t>
+  </si>
+  <si>
+    <t>SISTEMA.mostrarPedidos()</t>
+  </si>
+  <si>
+    <t>SISTEMA.mostrarPiezas()</t>
+  </si>
+  <si>
+    <t>SISTEMA.mostrarPresupuesto()</t>
+  </si>
+  <si>
+    <t>SISTEMA.mostrarProveedores()</t>
+  </si>
+  <si>
+    <t>SISTEMA.mostrarTecnicos()</t>
+  </si>
+  <si>
+    <t>SISTEMA.pedirPieza()</t>
+  </si>
+  <si>
+    <t>SISTEMA.pedirPiezasBasicas()</t>
+  </si>
+  <si>
+    <t>Tecnico.Tecnico()</t>
+  </si>
+  <si>
+    <t>Tecnico.editar()</t>
+  </si>
+  <si>
+    <t>Timer.accion()</t>
+  </si>
+  <si>
+    <t>Trabajo.crearTipoInforme()</t>
+  </si>
+  <si>
+    <t>Usuario.Usuario()</t>
+  </si>
+  <si>
+    <t>Usuario.editar()</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B80F4E-3E6E-4236-A605-5BF3D0C474A3}">
   <dimension ref="A1:BV14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2205,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F115FB-91EA-4D3D-AC52-FEB512D0E00D}">
   <dimension ref="A1:BV105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
@@ -10478,4 +10863,670 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8F3C7-C864-4127-94F5-E457C6309D3D}">
+  <dimension ref="A2:A129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
+++ b/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER2\ARTEFACTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="6_{C3531600-0594-4BA6-B807-231BA8DD42C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{30ECB380-CE47-4C9A-8F67-EAF30529DD92}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
@@ -17,17 +17,23 @@
     <sheet name="ARTEFACTO7.2" sheetId="1" r:id="rId2"/>
     <sheet name="ARTEFACTO7-ITER2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="214">
   <si>
     <t>RF1</t>
   </si>
@@ -666,6 +672,9 @@
   </si>
   <si>
     <t>Usuario.editar()</t>
+  </si>
+  <si>
+    <t>SISTEMA.mostrarPeticiones()</t>
   </si>
 </sst>
 </file>
@@ -10867,10 +10876,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8F3C7-C864-4127-94F5-E457C6309D3D}">
-  <dimension ref="A2:A129"/>
+  <dimension ref="A2:A130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11468,65 +11477,71 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
+++ b/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER2\ARTEFACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{60C0262B-66D5-403A-B3DB-C325C4C722AD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="220">
   <si>
     <t>RF1</t>
   </si>
@@ -675,6 +675,24 @@
   </si>
   <si>
     <t>SISTEMA.mostrarPeticiones()</t>
+  </si>
+  <si>
+    <t>Fachada.getPartes()</t>
+  </si>
+  <si>
+    <t>SISTEMA.mostrarPartes()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_CLIENTE.update()</t>
+  </si>
+  <si>
+    <t>Fachada.getTecnicos()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO.onClickSeleccionarTecnico()</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_TECNICO.onClickLogger()</t>
   </si>
 </sst>
 </file>
@@ -10876,10 +10894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8F3C7-C864-4127-94F5-E457C6309D3D}">
-  <dimension ref="A2:A130"/>
+  <dimension ref="A2:A136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11007,536 +11025,566 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>212</v>
       </c>
     </row>

--- a/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
+++ b/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER2\ARTEFACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{60C0262B-66D5-403A-B3DB-C325C4C722AD}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{81BD87F0-703B-4A28-A980-BE4582ABD767}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="226">
   <si>
     <t>RF1</t>
   </si>
@@ -693,6 +693,24 @@
   </si>
   <si>
     <t>INTERFAZ_USUARIO_TECNICO.onClickLogger()</t>
+  </si>
+  <si>
+    <t>ActualizarStock</t>
+  </si>
+  <si>
+    <t>AddPieza</t>
+  </si>
+  <si>
+    <t>AsignarPeticionTrabajo</t>
+  </si>
+  <si>
+    <t>CrearParteTrabajo</t>
+  </si>
+  <si>
+    <t>SolicitarPeticionCliente</t>
+  </si>
+  <si>
+    <t>INTERFAZ_USUARIO_CLIENTE.onClickLogger()</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1123,6 +1141,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2618,7 +2645,7 @@
   <dimension ref="A1:BV105"/>
   <sheetViews>
     <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10894,700 +10921,1404 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8F3C7-C864-4127-94F5-E457C6309D3D}">
-  <dimension ref="A2:A136"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="38"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="37"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="38"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="38"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="37"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="38"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="38"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="38"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="38"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="38"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="38"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="38"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="38"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="38"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="38"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="38"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="38"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B49" s="37"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="33" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="38"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="38"/>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="33" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B52" s="37"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="38"/>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="38"/>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B54" s="37"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="38"/>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="38"/>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="33" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="38"/>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B57" s="37"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="38"/>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="33" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="38"/>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="38"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="33" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B60" s="37"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="38"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B61" s="37"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="38"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="37"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="38"/>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B63" s="37"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="38"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" s="37"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="38"/>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="33" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" s="37"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="38"/>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="33" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B66" s="37"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="38"/>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="33" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="38"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="38"/>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B69" s="37"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="38"/>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="33" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B70" s="37"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="38"/>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B71" s="37"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="38"/>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="33" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B72" s="37"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="38"/>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="33" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B73" s="37"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="38"/>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="33" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B74" s="37"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="38"/>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="33" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B75" s="37"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="38"/>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="33" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B76" s="37"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="38"/>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="33" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B77" s="37"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="38"/>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="33" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="B78" s="37"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="38"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="33" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="B79" s="37"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="38"/>
+    </row>
+    <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="33" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="B80" s="37"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="38"/>
+    </row>
+    <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="33" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="B81" s="37"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="38"/>
+    </row>
+    <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" s="37"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="28"/>
+    </row>
+    <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="33" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B83" s="37"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="38"/>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="33" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" s="37"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="28"/>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="33" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" s="37"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="38"/>
+    </row>
+    <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="33" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" s="37"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="28"/>
+    </row>
+    <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="33" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B87" s="37"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="38"/>
+    </row>
+    <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="33" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88" s="37"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="38"/>
+    </row>
+    <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="33" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89" s="37"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="38"/>
+    </row>
+    <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="33" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90" s="37"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="38"/>
+    </row>
+    <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="33" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B91" s="37"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="38"/>
+    </row>
+    <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="33" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" s="37"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="38"/>
+    </row>
+    <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="33" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93" s="37"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="38"/>
+    </row>
+    <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="33" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B94" s="37"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="38"/>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="33" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B95" s="37"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="38"/>
+    </row>
+    <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="33" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B96" s="37"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="38"/>
+    </row>
+    <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="33" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B97" s="37"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="38"/>
+    </row>
+    <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="33" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B98" s="37"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="28"/>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B99" s="37"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="38"/>
+    </row>
+    <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="33" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B100" s="23"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="38"/>
+    </row>
+    <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="33" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" s="23"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="38"/>
+    </row>
+    <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="33" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B102" s="37"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="38"/>
+    </row>
+    <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="33" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B103" s="37"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="38"/>
+    </row>
+    <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="33" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="B104" s="37"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="38"/>
+    </row>
+    <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="33" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" s="37"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="38"/>
+    </row>
+    <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="33" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="B106" s="37"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="38"/>
+    </row>
+    <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="33" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="B107" s="37"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="38"/>
+    </row>
+    <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="33" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="B108" s="37"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="38"/>
+    </row>
+    <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="33" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B109" s="37"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="38"/>
+    </row>
+    <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="33" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="B110" s="37"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="38"/>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="33" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B111" s="37"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="38"/>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="33" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="B112" s="37"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="38"/>
+    </row>
+    <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="33" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B113" s="37"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="38"/>
+    </row>
+    <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="33" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B114" s="37"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="38"/>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="33" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B115" s="37"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="38"/>
+    </row>
+    <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="33" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B116" s="37"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="28"/>
+    </row>
+    <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="33" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B117" s="37"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="38"/>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="33" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118" s="37"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="38"/>
+    </row>
+    <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="33" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B119" s="37"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="38"/>
+    </row>
+    <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="33" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B120" s="37"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="28"/>
+    </row>
+    <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="33" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B121" s="37"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="38"/>
+    </row>
+    <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="33" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B122" s="37"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="38"/>
+    </row>
+    <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="33" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B123" s="23"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="38"/>
+    </row>
+    <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="33" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B124" s="23"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="38"/>
+    </row>
+    <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="33" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B125" s="37"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="38"/>
+    </row>
+    <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="33" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B126" s="23"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="38"/>
+    </row>
+    <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="33" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B127" s="37"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="38"/>
+    </row>
+    <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="33" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B128" s="37"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="38"/>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="33" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B129" s="37"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="38"/>
+    </row>
+    <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="33" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B130" s="37"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="38"/>
+    </row>
+    <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="33" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="B131" s="37"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="38"/>
+    </row>
+    <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="33" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B132" s="37"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="38"/>
+    </row>
+    <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="33" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="B133" s="37"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="38"/>
+    </row>
+    <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="33" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="B134" s="37"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="38"/>
+    </row>
+    <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="33" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B135" s="37"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="38"/>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="33" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B136" s="37"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="38"/>
+    </row>
+    <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="33" t="s">
         <v>212</v>
       </c>
-    </row>
+      <c r="B137" s="39"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="41"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
+++ b/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER2\ARTEFACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{81BD87F0-703B-4A28-A980-BE4582ABD767}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{C3C0AAB8-703B-433F-A9F4-7CFD5DB6AA5C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="228">
   <si>
     <t>RF1</t>
   </si>
@@ -711,6 +711,12 @@
   </si>
   <si>
     <t>INTERFAZ_USUARIO_CLIENTE.onClickLogger()</t>
+  </si>
+  <si>
+    <t>Fachada.guardarPeticion()</t>
+  </si>
+  <si>
+    <t>Fachada.guardarPieza()</t>
   </si>
 </sst>
 </file>
@@ -10921,10 +10927,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8F3C7-C864-4127-94F5-E457C6309D3D}">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11240,37 +11246,37 @@
     </row>
     <row r="30" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B30" s="37"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="28"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B31" s="37"/>
-      <c r="C31" s="32"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="18"/>
       <c r="F31" s="38"/>
     </row>
     <row r="32" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B32" s="37"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="38"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="32"/>
@@ -11280,7 +11286,7 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="32"/>
@@ -11290,7 +11296,7 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="32"/>
@@ -11300,7 +11306,7 @@
     </row>
     <row r="36" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="32"/>
@@ -11310,7 +11316,7 @@
     </row>
     <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="32"/>
@@ -11320,7 +11326,7 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="32"/>
@@ -11330,7 +11336,7 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="32"/>
@@ -11340,7 +11346,7 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="32"/>
@@ -11350,7 +11356,7 @@
     </row>
     <row r="41" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="32"/>
@@ -11360,7 +11366,7 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="32"/>
@@ -11370,17 +11376,17 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="24"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="32"/>
@@ -11390,17 +11396,17 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="32"/>
       <c r="F45" s="38"/>
     </row>
     <row r="46" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="32"/>
@@ -11410,7 +11416,7 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B47" s="37"/>
       <c r="C47" s="32"/>
@@ -11420,7 +11426,7 @@
     </row>
     <row r="48" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="32"/>
@@ -11430,7 +11436,7 @@
     </row>
     <row r="49" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="32"/>
@@ -11440,7 +11446,7 @@
     </row>
     <row r="50" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="32"/>
@@ -11450,17 +11456,17 @@
     </row>
     <row r="51" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B51" s="37"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="32"/>
       <c r="F51" s="38"/>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B52" s="37"/>
       <c r="C52" s="32"/>
@@ -11470,17 +11476,17 @@
     </row>
     <row r="53" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B53" s="37"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="32"/>
       <c r="F53" s="38"/>
     </row>
     <row r="54" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="32"/>
@@ -11490,7 +11496,7 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="32"/>
@@ -11500,7 +11506,7 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B56" s="37"/>
       <c r="C56" s="32"/>
@@ -11510,7 +11516,7 @@
     </row>
     <row r="57" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="32"/>
@@ -11520,7 +11526,7 @@
     </row>
     <row r="58" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B58" s="37"/>
       <c r="C58" s="32"/>
@@ -11530,7 +11536,7 @@
     </row>
     <row r="59" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B59" s="37"/>
       <c r="C59" s="32"/>
@@ -11540,7 +11546,7 @@
     </row>
     <row r="60" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B60" s="37"/>
       <c r="C60" s="32"/>
@@ -11550,7 +11556,7 @@
     </row>
     <row r="61" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B61" s="37"/>
       <c r="C61" s="32"/>
@@ -11560,7 +11566,7 @@
     </row>
     <row r="62" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B62" s="37"/>
       <c r="C62" s="32"/>
@@ -11570,7 +11576,7 @@
     </row>
     <row r="63" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B63" s="37"/>
       <c r="C63" s="32"/>
@@ -11580,17 +11586,17 @@
     </row>
     <row r="64" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" s="37"/>
       <c r="C64" s="32"/>
-      <c r="D64" s="24"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="32"/>
       <c r="F64" s="38"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B65" s="37"/>
       <c r="C65" s="32"/>
@@ -11600,17 +11606,17 @@
     </row>
     <row r="66" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="37"/>
       <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="32"/>
       <c r="F66" s="38"/>
     </row>
     <row r="67" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67" s="37"/>
       <c r="C67" s="32"/>
@@ -11620,7 +11626,7 @@
     </row>
     <row r="68" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B68" s="37"/>
       <c r="C68" s="32"/>
@@ -11630,7 +11636,7 @@
     </row>
     <row r="69" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B69" s="37"/>
       <c r="C69" s="32"/>
@@ -11640,17 +11646,17 @@
     </row>
     <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B70" s="37"/>
-      <c r="C70" s="24"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
       <c r="F70" s="38"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="32"/>
@@ -11660,17 +11666,17 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B72" s="37"/>
-      <c r="C72" s="32"/>
+      <c r="C72" s="24"/>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
       <c r="F72" s="38"/>
     </row>
     <row r="73" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B73" s="37"/>
       <c r="C73" s="32"/>
@@ -11680,7 +11686,7 @@
     </row>
     <row r="74" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="32"/>
@@ -11690,7 +11696,7 @@
     </row>
     <row r="75" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B75" s="37"/>
       <c r="C75" s="32"/>
@@ -11700,7 +11706,7 @@
     </row>
     <row r="76" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B76" s="37"/>
       <c r="C76" s="32"/>
@@ -11710,7 +11716,7 @@
     </row>
     <row r="77" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="B77" s="37"/>
       <c r="C77" s="32"/>
@@ -11720,17 +11726,17 @@
     </row>
     <row r="78" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B78" s="37"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="32"/>
       <c r="F78" s="38"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="B79" s="37"/>
       <c r="C79" s="32"/>
@@ -11740,17 +11746,17 @@
     </row>
     <row r="80" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B80" s="37"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="32"/>
       <c r="F80" s="38"/>
     </row>
     <row r="81" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" s="37"/>
       <c r="C81" s="32"/>
@@ -11760,17 +11766,17 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="B82" s="37"/>
       <c r="C82" s="32"/>
       <c r="D82" s="32"/>
       <c r="E82" s="32"/>
-      <c r="F82" s="28"/>
+      <c r="F82" s="38"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B83" s="37"/>
       <c r="C83" s="32"/>
@@ -11780,7 +11786,7 @@
     </row>
     <row r="84" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="B84" s="37"/>
       <c r="C84" s="32"/>
@@ -11790,7 +11796,7 @@
     </row>
     <row r="85" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B85" s="37"/>
       <c r="C85" s="32"/>
@@ -11800,7 +11806,7 @@
     </row>
     <row r="86" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="B86" s="37"/>
       <c r="C86" s="32"/>
@@ -11810,7 +11816,7 @@
     </row>
     <row r="87" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B87" s="37"/>
       <c r="C87" s="32"/>
@@ -11820,47 +11826,47 @@
     </row>
     <row r="88" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="38"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="B89" s="37"/>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
-      <c r="E89" s="24"/>
+      <c r="E89" s="32"/>
       <c r="F89" s="38"/>
     </row>
     <row r="90" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B90" s="37"/>
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
+      <c r="E90" s="24"/>
       <c r="F90" s="38"/>
     </row>
     <row r="91" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="B91" s="37"/>
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
+      <c r="E91" s="24"/>
       <c r="F91" s="38"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B92" s="37"/>
       <c r="C92" s="32"/>
@@ -11870,47 +11876,47 @@
     </row>
     <row r="93" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B93" s="37"/>
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
-      <c r="E93" s="24"/>
+      <c r="E93" s="32"/>
       <c r="F93" s="38"/>
     </row>
     <row r="94" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
-      <c r="E94" s="24"/>
+      <c r="E94" s="32"/>
       <c r="F94" s="38"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B95" s="37"/>
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
+      <c r="E95" s="24"/>
       <c r="F95" s="38"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B96" s="37"/>
       <c r="C96" s="32"/>
       <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
+      <c r="E96" s="24"/>
       <c r="F96" s="38"/>
     </row>
     <row r="97" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B97" s="37"/>
       <c r="C97" s="32"/>
@@ -11920,17 +11926,17 @@
     </row>
     <row r="98" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="B98" s="37"/>
       <c r="C98" s="32"/>
       <c r="D98" s="32"/>
       <c r="E98" s="32"/>
-      <c r="F98" s="28"/>
+      <c r="F98" s="38"/>
     </row>
     <row r="99" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B99" s="37"/>
       <c r="C99" s="32"/>
@@ -11940,19 +11946,19 @@
     </row>
     <row r="100" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="B100" s="37"/>
+      <c r="C100" s="32"/>
       <c r="D100" s="32"/>
       <c r="E100" s="32"/>
-      <c r="F100" s="38"/>
+      <c r="F100" s="28"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B101" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="B101" s="37"/>
       <c r="C101" s="32"/>
       <c r="D101" s="32"/>
       <c r="E101" s="32"/>
@@ -11960,19 +11966,19 @@
     </row>
     <row r="102" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B102" s="37"/>
-      <c r="C102" s="32"/>
+        <v>177</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="24"/>
       <c r="D102" s="32"/>
       <c r="E102" s="32"/>
       <c r="F102" s="38"/>
     </row>
     <row r="103" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B103" s="37"/>
+        <v>178</v>
+      </c>
+      <c r="B103" s="23"/>
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
       <c r="E103" s="32"/>
@@ -11980,7 +11986,7 @@
     </row>
     <row r="104" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B104" s="37"/>
       <c r="C104" s="32"/>
@@ -11990,7 +11996,7 @@
     </row>
     <row r="105" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B105" s="37"/>
       <c r="C105" s="32"/>
@@ -12000,7 +12006,7 @@
     </row>
     <row r="106" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B106" s="37"/>
       <c r="C106" s="32"/>
@@ -12010,7 +12016,7 @@
     </row>
     <row r="107" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B107" s="37"/>
       <c r="C107" s="32"/>
@@ -12020,7 +12026,7 @@
     </row>
     <row r="108" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B108" s="37"/>
       <c r="C108" s="32"/>
@@ -12030,7 +12036,7 @@
     </row>
     <row r="109" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="32"/>
@@ -12040,7 +12046,7 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="32"/>
@@ -12050,7 +12056,7 @@
     </row>
     <row r="111" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B111" s="37"/>
       <c r="C111" s="32"/>
@@ -12060,7 +12066,7 @@
     </row>
     <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B112" s="37"/>
       <c r="C112" s="32"/>
@@ -12070,7 +12076,7 @@
     </row>
     <row r="113" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B113" s="37"/>
       <c r="C113" s="32"/>
@@ -12080,7 +12086,7 @@
     </row>
     <row r="114" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B114" s="37"/>
       <c r="C114" s="32"/>
@@ -12090,67 +12096,67 @@
     </row>
     <row r="115" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B115" s="37"/>
       <c r="C115" s="32"/>
       <c r="D115" s="32"/>
-      <c r="E115" s="24"/>
+      <c r="E115" s="32"/>
       <c r="F115" s="38"/>
     </row>
     <row r="116" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B116" s="37"/>
       <c r="C116" s="32"/>
       <c r="D116" s="32"/>
       <c r="E116" s="32"/>
-      <c r="F116" s="28"/>
+      <c r="F116" s="38"/>
     </row>
     <row r="117" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B117" s="37"/>
-      <c r="C117" s="24"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
+      <c r="E117" s="24"/>
       <c r="F117" s="38"/>
     </row>
     <row r="118" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B118" s="37"/>
       <c r="C118" s="32"/>
       <c r="D118" s="32"/>
       <c r="E118" s="32"/>
-      <c r="F118" s="38"/>
+      <c r="F118" s="28"/>
     </row>
     <row r="119" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B119" s="37"/>
-      <c r="C119" s="32"/>
+      <c r="C119" s="24"/>
       <c r="D119" s="32"/>
       <c r="E119" s="32"/>
       <c r="F119" s="38"/>
     </row>
     <row r="120" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B120" s="37"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="28"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="38"/>
     </row>
     <row r="121" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B121" s="37"/>
       <c r="C121" s="32"/>
@@ -12160,19 +12166,19 @@
     </row>
     <row r="122" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B122" s="37"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="38"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="28"/>
     </row>
     <row r="123" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B123" s="23"/>
+        <v>198</v>
+      </c>
+      <c r="B123" s="37"/>
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
       <c r="E123" s="32"/>
@@ -12180,9 +12186,9 @@
     </row>
     <row r="124" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B124" s="23"/>
+        <v>199</v>
+      </c>
+      <c r="B124" s="37"/>
       <c r="C124" s="32"/>
       <c r="D124" s="32"/>
       <c r="E124" s="32"/>
@@ -12190,17 +12196,17 @@
     </row>
     <row r="125" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B125" s="37"/>
+        <v>215</v>
+      </c>
+      <c r="B125" s="23"/>
       <c r="C125" s="32"/>
-      <c r="D125" s="24"/>
+      <c r="D125" s="32"/>
       <c r="E125" s="32"/>
       <c r="F125" s="38"/>
     </row>
     <row r="126" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="32"/>
@@ -12210,19 +12216,19 @@
     </row>
     <row r="127" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B127" s="37"/>
       <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
+      <c r="D127" s="24"/>
       <c r="E127" s="32"/>
       <c r="F127" s="38"/>
     </row>
     <row r="128" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B128" s="37"/>
+        <v>201</v>
+      </c>
+      <c r="B128" s="23"/>
       <c r="C128" s="32"/>
       <c r="D128" s="32"/>
       <c r="E128" s="32"/>
@@ -12230,17 +12236,17 @@
     </row>
     <row r="129" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B129" s="37"/>
       <c r="C129" s="32"/>
-      <c r="D129" s="24"/>
+      <c r="D129" s="32"/>
       <c r="E129" s="32"/>
       <c r="F129" s="38"/>
     </row>
     <row r="130" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B130" s="37"/>
       <c r="C130" s="32"/>
@@ -12250,17 +12256,17 @@
     </row>
     <row r="131" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B131" s="37"/>
       <c r="C131" s="32"/>
-      <c r="D131" s="32"/>
+      <c r="D131" s="24"/>
       <c r="E131" s="32"/>
       <c r="F131" s="38"/>
     </row>
     <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B132" s="37"/>
       <c r="C132" s="32"/>
@@ -12270,7 +12276,7 @@
     </row>
     <row r="133" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B133" s="37"/>
       <c r="C133" s="32"/>
@@ -12280,7 +12286,7 @@
     </row>
     <row r="134" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B134" s="37"/>
       <c r="C134" s="32"/>
@@ -12290,7 +12296,7 @@
     </row>
     <row r="135" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B135" s="37"/>
       <c r="C135" s="32"/>
@@ -12300,7 +12306,7 @@
     </row>
     <row r="136" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B136" s="37"/>
       <c r="C136" s="32"/>
@@ -12310,15 +12316,35 @@
     </row>
     <row r="137" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B137" s="37"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="38"/>
+    </row>
+    <row r="138" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B138" s="37"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="38"/>
+    </row>
+    <row r="139" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="B137" s="39"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="40"/>
-      <c r="F137" s="41"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="41"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
+++ b/ITER2/ARTEFACTOS/TABLAS ARTEFACTO 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER2\ARTEFACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{C3C0AAB8-703B-433F-A9F4-7CFD5DB6AA5C}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{0D0A7CF3-11FF-4CA3-A092-178B21BA7121}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{7B965C93-51DD-4D11-A54A-AF18403BF795}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
@@ -10929,8 +10929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB8F3C7-C864-4127-94F5-E457C6309D3D}">
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11252,7 +11252,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
